--- a/Formulasation(shacl)/core/Templates/SHACL-identifier.xlsx
+++ b/Formulasation(shacl)/core/Templates/SHACL-identifier.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://healthri-my.sharepoint.com/personal/hannah_neikes_health-ri_nl/Documents/Documenten/GDI/shacl_template_GDI/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://healthri-my.sharepoint.com/personal/hannah_neikes_health-ri_nl/Documents/Documenten/GitHub/gdi-metadata/Formulasation(shacl)/core/Templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="225" documentId="13_ncr:1_{CC90F1A9-7F52-8148-BE94-617DCF70111C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE15285D-E75C-4369-B2CD-43DA51190100}"/>
+  <xr:revisionPtr revIDLastSave="226" documentId="13_ncr:1_{CC90F1A9-7F52-8148-BE94-617DCF70111C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{469E3014-9DEC-4D3A-9628-0D46D3489001}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-12765" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2219,7 +2219,7 @@
       </c>
       <c r="B7" s="6">
         <f ca="1">NOW()</f>
-        <v>45842.487552662038</v>
+        <v>45849.488765162037</v>
       </c>
       <c r="F7" s="3"/>
     </row>
@@ -2379,7 +2379,7 @@
     <sheetView tabSelected="1" zoomScale="95" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="E13" sqref="E13"/>
-      <selection pane="topRight" activeCell="B12" sqref="B12"/>
+      <selection pane="topRight" activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2624,7 +2624,9 @@
         <v>129</v>
       </c>
       <c r="F9" s="66"/>
-      <c r="G9" s="44"/>
+      <c r="G9" s="44">
+        <v>1</v>
+      </c>
       <c r="H9" s="67">
         <v>1</v>
       </c>
@@ -2881,6 +2883,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="cfc87205-1831-4b6c-a7b4-76d40079a43e" xsi:nil="true"/>
+    <Categorie xmlns="cfc87205-1831-4b6c-a7b4-76d40079a43e" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="cfc87205-1831-4b6c-a7b4-76d40079a43e">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="221af607-abea-4d5e-830c-567dcc03c0ec" xsi:nil="true"/>
+    <Persoon xmlns="cfc87205-1831-4b6c-a7b4-76d40079a43e">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Persoon>
+    <Opmerkingen xmlns="cfc87205-1831-4b6c-a7b4-76d40079a43e" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000B1A1CF98C819F4881BB4349588D0C85" ma:contentTypeVersion="22" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="31f6c59cfd598d1d7de5b45c1822abcd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cfc87205-1831-4b6c-a7b4-76d40079a43e" xmlns:ns3="221af607-abea-4d5e-830c-567dcc03c0ec" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="67714481eaab3d0eef8b708c465ce66d" ns2:_="" ns3:_="">
     <xsd:import namespace="cfc87205-1831-4b6c-a7b4-76d40079a43e"/>
@@ -3168,27 +3191,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="cfc87205-1831-4b6c-a7b4-76d40079a43e" xsi:nil="true"/>
-    <Categorie xmlns="cfc87205-1831-4b6c-a7b4-76d40079a43e" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="cfc87205-1831-4b6c-a7b4-76d40079a43e">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="221af607-abea-4d5e-830c-567dcc03c0ec" xsi:nil="true"/>
-    <Persoon xmlns="cfc87205-1831-4b6c-a7b4-76d40079a43e">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Persoon>
-    <Opmerkingen xmlns="cfc87205-1831-4b6c-a7b4-76d40079a43e" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -3199,6 +3201,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6C2A762-C9A0-490C-9DDC-F35C0AECA17E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="cfc87205-1831-4b6c-a7b4-76d40079a43e"/>
+    <ds:schemaRef ds:uri="221af607-abea-4d5e-830c-567dcc03c0ec"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99D4FA9F-44E0-4A21-BB1E-7DCC2D0AA9EC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3217,17 +3230,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6C2A762-C9A0-490C-9DDC-F35C0AECA17E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="cfc87205-1831-4b6c-a7b4-76d40079a43e"/>
-    <ds:schemaRef ds:uri="221af607-abea-4d5e-830c-567dcc03c0ec"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CE3AE30-F94D-4B2D-A964-81B3B3999808}">
   <ds:schemaRefs>
